--- a/apps/libPXGL/examples/performance_graph_sssp.xlsx
+++ b/apps/libPXGL/examples/performance_graph_sssp.xlsx
@@ -13,6 +13,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
+    <t>Nodes=4 Cores=2</t>
+  </si>
+  <si>
     <t>Scale</t>
   </si>
   <si>
@@ -26,6 +29,46 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Nodes=4 Cores=4</t>
+  </si>
+  <si>
+    <t>
+</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TEPS</t>
+  </si>
+  <si>
+    <t>Nodes=4 Cores=8</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TEPS</t>
+  </si>
+  <si>
+    <t>Nodes=3 Cores=2</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TEPS</t>
   </si>
 </sst>
 </file>
@@ -157,11 +200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="759340177"/>
-        <c:axId val="1387720144"/>
+        <c:axId val="707480604"/>
+        <c:axId val="1073299479"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="759340177"/>
+        <c:axId val="707480604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -209,10 +252,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1387720144"/>
+        <c:crossAx val="1073299479"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1387720144"/>
+        <c:axId val="1073299479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -260,7 +303,196 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759340177"/>
+        <c:crossAx val="707480604"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Timing (Nodes=4 Cores=4)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$45</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4684EE"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4684EE"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$46:$C$52</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$46:$D$52</c:f>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="545353189"/>
+        <c:axId val="1897461419"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="545353189"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>scale(2^x)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1897461419"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1897461419"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545353189"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -274,7 +506,7 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:absoluteAnchor>
-    <xdr:pos y="3933825" x="4305300"/>
+    <xdr:pos y="3933825" x="4467225"/>
     <xdr:ext cy="3533775" cx="5715000"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -293,6 +525,26 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos y="8553450" x="6010275"/>
+    <xdr:ext cy="3533775" cx="5715000"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off y="0" x="0"/>
+        <a:ext cy="0" cx="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -302,16 +554,24 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" customWidth="1" max="3" width="16.86"/>
+  </cols>
   <sheetData>
+    <row r="5">
+      <c t="s" s="1" r="C5">
+        <v>0</v>
+      </c>
+    </row>
     <row r="7">
       <c t="s" s="1" r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="s" s="1" r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -393,10 +653,10 @@
     </row>
     <row r="21">
       <c t="s" s="1" r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c t="s" s="1" r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -453,6 +713,271 @@
       </c>
       <c s="1" r="D28">
         <v>3.568799</v>
+      </c>
+    </row>
+    <row r="43">
+      <c t="s" s="1" r="C43">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="D43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c t="s" s="1" r="C45">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="D45">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="E45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c s="1" r="C46">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="D46">
+        <v>0.1974725</v>
+      </c>
+      <c s="2" r="E46">
+        <v>12716.2141114089</v>
+      </c>
+    </row>
+    <row r="47">
+      <c s="1" r="C47">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="D47">
+        <v>0.3156498</v>
+      </c>
+      <c s="2" r="E47">
+        <v>19480.7612923745</v>
+      </c>
+    </row>
+    <row r="48">
+      <c s="1" r="C48">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="D48">
+        <v>0.4122598</v>
+      </c>
+      <c s="2" r="E48">
+        <v>29187.5731018547</v>
+      </c>
+    </row>
+    <row r="49">
+      <c s="1" r="C49">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="D49">
+        <v>0.7239546</v>
+      </c>
+      <c s="2" r="E49">
+        <v>37054.1807086566</v>
+      </c>
+    </row>
+    <row r="50">
+      <c s="1" r="C50">
+        <v>14.0</v>
+      </c>
+      <c s="1" r="D50">
+        <v>1.3600523</v>
+      </c>
+      <c s="2" r="E50">
+        <v>41395.1712257824</v>
+      </c>
+    </row>
+    <row r="51">
+      <c s="1" r="C51">
+        <v>15.0</v>
+      </c>
+      <c s="1" r="D51">
+        <v>2.8392271</v>
+      </c>
+      <c s="2" r="E51">
+        <v>41411.4027051367</v>
+      </c>
+    </row>
+    <row r="52">
+      <c s="1" r="C52">
+        <v>16.0</v>
+      </c>
+      <c s="1" r="D52">
+        <v>5.9881208</v>
+      </c>
+      <c s="2" r="E52">
+        <v>37907.4982712227</v>
+      </c>
+    </row>
+    <row r="57">
+      <c t="s" s="1" r="C57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c t="s" s="1" r="C59">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="D59">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="E59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c s="1" r="C60">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="D60">
+        <v>0.5359992</v>
+      </c>
+      <c s="2" r="E60">
+        <v>5422.24647210758</v>
+      </c>
+    </row>
+    <row r="61">
+      <c s="1" r="C61">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="D61">
+        <v>0.7315231</v>
+      </c>
+      <c s="2" r="E61">
+        <v>8989.4617562339</v>
+      </c>
+    </row>
+    <row r="62">
+      <c s="1" r="C62">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="D62">
+        <v>0.9159996</v>
+      </c>
+      <c s="2" r="E62">
+        <v>13759.0071727232</v>
+      </c>
+    </row>
+    <row r="63">
+      <c s="1" r="C63">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="D63">
+        <v>1.4399727</v>
+      </c>
+      <c s="2" r="E63">
+        <v>18807.7478029248</v>
+      </c>
+    </row>
+    <row r="64">
+      <c s="1" r="C64">
+        <v>14.0</v>
+      </c>
+      <c s="1" r="D64">
+        <v>2.7086218</v>
+      </c>
+      <c s="2" r="E64">
+        <v>20525.2573975928</v>
+      </c>
+    </row>
+    <row r="65">
+      <c s="1" r="C65">
+        <v>15.0</v>
+      </c>
+      <c s="1" r="D65">
+        <v>5.7760004</v>
+      </c>
+      <c s="2" r="E65">
+        <v>20011.0149927293</v>
+      </c>
+    </row>
+    <row r="66">
+      <c s="1" r="C66">
+        <v>16.0</v>
+      </c>
+      <c s="1" r="D66">
+        <v>12.1160785</v>
+      </c>
+      <c s="2" r="E66">
+        <v>18566.9494157518</v>
+      </c>
+    </row>
+    <row r="71">
+      <c t="s" s="1" r="C71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c t="s" s="1" r="C73">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="D73">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="E73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c s="1" r="C74">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="D74">
+        <v>0.0344298</v>
+      </c>
+      <c s="2" r="E74">
+        <v>101858.335299941</v>
+      </c>
+    </row>
+    <row r="75">
+      <c s="1" r="C75">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="D75">
+        <v>0.0887094</v>
+      </c>
+      <c s="2" r="E75">
+        <v>70881.1862760614</v>
+      </c>
+    </row>
+    <row r="76">
+      <c s="1" r="C76">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="D76">
+        <v>0.3455837</v>
+      </c>
+      <c s="2" r="E76">
+        <v>38056.3543602685</v>
+      </c>
+    </row>
+    <row r="77">
+      <c s="1" r="C77">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="D77">
+        <v>0.8550665</v>
+      </c>
+      <c s="2" r="E77">
+        <v>28896.7091363251</v>
+      </c>
+    </row>
+    <row r="78">
+      <c s="1" r="C78">
+        <v>14.0</v>
+      </c>
+      <c s="1" r="D78"/>
+    </row>
+    <row r="79">
+      <c s="1" r="C79">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c s="1" r="C80">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>

--- a/apps/libPXGL/examples/performance_graph_sssp.xlsx
+++ b/apps/libPXGL/examples/performance_graph_sssp.xlsx
@@ -19,10 +19,10 @@
     <t>Scale</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>TEPS</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>Scale(2^x)</t>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>Nodes=3 Cores=2</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TEPS</t>
+  </si>
+  <si>
+    <t>Nodes=3 Cores=4</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TEPS</t>
+  </si>
+  <si>
+    <t>Nodes=3 Cores=8</t>
   </si>
   <si>
     <t>Scale</t>
@@ -200,11 +224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="707480604"/>
-        <c:axId val="1073299479"/>
+        <c:axId val="1343669871"/>
+        <c:axId val="1313235419"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="707480604"/>
+        <c:axId val="1343669871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -252,10 +276,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1073299479"/>
+        <c:crossAx val="1313235419"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1073299479"/>
+        <c:axId val="1313235419"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -303,7 +327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707480604"/>
+        <c:crossAx val="1343669871"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -389,11 +413,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="545353189"/>
-        <c:axId val="1897461419"/>
+        <c:axId val="1949051714"/>
+        <c:axId val="382638821"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="545353189"/>
+        <c:axId val="1949051714"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,10 +465,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1897461419"/>
+        <c:crossAx val="382638821"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1897461419"/>
+        <c:axId val="382638821"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +516,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545353189"/>
+        <c:crossAx val="1949051714"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -578,77 +602,77 @@
       <c s="1" r="C8">
         <v>10.0</v>
       </c>
-      <c s="2" r="D8">
+      <c s="1" r="D8">
+        <v>0.0195223</v>
+      </c>
+      <c s="2" r="E8">
         <v>196663.391424174</v>
-      </c>
-      <c s="1" r="E8">
-        <v>0.0195223</v>
       </c>
     </row>
     <row r="9">
       <c s="1" r="C9">
         <v>11.0</v>
       </c>
-      <c s="2" r="D9">
+      <c s="1" r="D9">
+        <v>0.045345</v>
+      </c>
+      <c s="2" r="E9">
         <v>168762.741113132</v>
-      </c>
-      <c s="1" r="E9">
-        <v>0.045345</v>
       </c>
     </row>
     <row r="10">
       <c s="1" r="C10">
         <v>12.0</v>
       </c>
-      <c s="2" r="D10">
+      <c s="1" r="D10">
+        <v>0.1185085</v>
+      </c>
+      <c s="2" r="E10">
         <v>138504.290195411</v>
-      </c>
-      <c s="1" r="E10">
-        <v>0.1185085</v>
       </c>
     </row>
     <row r="11">
       <c s="1" r="C11">
         <v>13.0</v>
       </c>
-      <c s="2" r="D11">
+      <c s="1" r="D11">
+        <v>0.2590758</v>
+      </c>
+      <c s="2" r="E11">
         <v>123149.568306039</v>
-      </c>
-      <c s="1" r="E11">
-        <v>0.2590758</v>
       </c>
     </row>
     <row r="12">
       <c s="1" r="C12">
         <v>14.0</v>
       </c>
-      <c s="2" r="D12">
+      <c s="1" r="D12">
+        <v>0.6759084</v>
+      </c>
+      <c s="2" r="E12">
         <v>102268.696128044</v>
-      </c>
-      <c s="1" r="E12">
-        <v>0.6759084</v>
       </c>
     </row>
     <row r="13">
       <c s="1" r="C13">
         <v>15.0</v>
       </c>
-      <c s="2" r="D13">
+      <c s="1" r="D13">
+        <v>1.4849656</v>
+      </c>
+      <c s="2" r="E13">
         <v>86294.9722695372</v>
-      </c>
-      <c s="1" r="E13">
-        <v>1.4849656</v>
       </c>
     </row>
     <row r="14">
       <c s="1" r="C14">
         <v>16.0</v>
       </c>
-      <c s="2" r="D14">
+      <c s="1" r="D14">
+        <v>3.568799</v>
+      </c>
+      <c s="2" r="E14">
         <v>71560.5351037209</v>
-      </c>
-      <c s="1" r="E14">
-        <v>3.568799</v>
       </c>
     </row>
     <row r="21">
@@ -977,6 +1001,162 @@
     </row>
     <row r="80">
       <c s="1" r="C80">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c t="s" s="1" r="C85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c t="s" s="1" r="C86">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="D86">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="E86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87">
+      <c s="1" r="C87">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="D87">
+        <v>0.1738422</v>
+      </c>
+      <c s="2" r="E87">
+        <v>12408.8973065236</v>
+      </c>
+    </row>
+    <row r="88">
+      <c s="1" r="C88">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="D88">
+        <v>0.3458598</v>
+      </c>
+      <c s="2" r="E88">
+        <v>17042.3598071348</v>
+      </c>
+    </row>
+    <row r="89">
+      <c s="1" r="C89">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="D89">
+        <v>0.822186</v>
+      </c>
+      <c s="2" r="E89">
+        <v>17544.6149733831</v>
+      </c>
+    </row>
+    <row r="90">
+      <c s="1" r="C90">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="D90">
+        <v>1.4080322</v>
+      </c>
+      <c s="2" r="E90">
+        <v>18968.4491515277</v>
+      </c>
+    </row>
+    <row r="91">
+      <c s="1" r="C91">
+        <v>14.0</v>
+      </c>
+      <c s="1" r="D91">
+        <v>4.8658989</v>
+      </c>
+      <c s="2" r="E91">
+        <v>11003.4854440859</v>
+      </c>
+    </row>
+    <row r="92">
+      <c s="1" r="C92">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c s="1" r="C93">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c t="s" s="1" r="C96">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97">
+      <c t="s" s="1" r="C97">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="D97">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="E97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c s="1" r="C98">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="D98">
+        <v>0.6439654</v>
+      </c>
+      <c s="2" r="E98">
+        <v>10239.9354116073</v>
+      </c>
+    </row>
+    <row r="99">
+      <c s="1" r="C99">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="D99">
+        <v>0.7887884</v>
+      </c>
+      <c s="2" r="E99">
+        <v>7549.52172409499</v>
+      </c>
+    </row>
+    <row r="100">
+      <c s="1" r="C100">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="D100">
+        <v>1.5918546</v>
+      </c>
+      <c s="2" r="E100">
+        <v>8774.10435732216</v>
+      </c>
+    </row>
+    <row r="101">
+      <c s="1" r="C101">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="D101">
+        <v>2.404021</v>
+      </c>
+      <c s="2" r="E101">
+        <v>10470.1600920178</v>
+      </c>
+    </row>
+    <row r="102">
+      <c s="1" r="C102">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c s="1" r="C103">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c s="1" r="C104">
         <v>16.0</v>
       </c>
     </row>

--- a/apps/libPXGL/examples/performance_graph_sssp.xlsx
+++ b/apps/libPXGL/examples/performance_graph_sssp.xlsx
@@ -16,21 +16,6 @@
     <t>Nodes=4 Cores=2</t>
   </si>
   <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>TEPS</t>
-  </si>
-  <si>
-    <t>Scale(2^x)</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>Nodes=4 Cores=4</t>
   </si>
   <si>
@@ -38,18 +23,27 @@
 </t>
   </si>
   <si>
+    <t>Nodes=4 Cores=8</t>
+  </si>
+  <si>
     <t>Scale</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>TEPS</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>TEPS</t>
   </si>
   <si>
-    <t>Nodes=4 Cores=8</t>
-  </si>
-  <si>
     <t>Scale</t>
   </si>
   <si>
@@ -59,9 +53,45 @@
     <t>TEPS</t>
   </si>
   <si>
+    <t>scale 13</t>
+  </si>
+  <si>
+    <t>Scale 13 Nodes 4</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>TEPS</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>TEPS</t>
+  </si>
+  <si>
     <t>Nodes=3 Cores=2</t>
   </si>
   <si>
+    <t>Nodes=3 Cores=4</t>
+  </si>
+  <si>
+    <t>Nodes=3 Cores=8</t>
+  </si>
+  <si>
     <t>Scale</t>
   </si>
   <si>
@@ -71,9 +101,6 @@
     <t>TEPS</t>
   </si>
   <si>
-    <t>Nodes=3 Cores=4</t>
-  </si>
-  <si>
     <t>Scale</t>
   </si>
   <si>
@@ -83,7 +110,40 @@
     <t>TEPS</t>
   </si>
   <si>
-    <t>Nodes=3 Cores=8</t>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TEPS</t>
+  </si>
+  <si>
+    <t>Nodes=8 Cores=2</t>
+  </si>
+  <si>
+    <t>Nodes=8 Cores=4</t>
+  </si>
+  <si>
+    <t>Nodes=8 Cores=8</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TEPS</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TEPS</t>
   </si>
   <si>
     <t>Scale</t>
@@ -166,7 +226,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>TIming(4 nodes, 2 cores)</a:t>
+              <a:t>Scale 13 Cores 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -183,7 +243,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$21</c:f>
+              <c:f>Sheet1!$B$18</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -207,12 +267,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$C$28</c:f>
+              <c:f>Sheet1!$A$19:$A$21</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$D$28</c:f>
+              <c:f>Sheet1!$B$19:$B$21</c:f>
             </c:numRef>
           </c:yVal>
         </c:ser>
@@ -224,11 +284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1343669871"/>
-        <c:axId val="1313235419"/>
+        <c:axId val="1418714249"/>
+        <c:axId val="774947791"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1343669871"/>
+        <c:axId val="1418714249"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,7 +313,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>scale(2^x)</a:t>
+                  <a:t>Nodes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -276,10 +336,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1313235419"/>
+        <c:crossAx val="774947791"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1313235419"/>
+        <c:axId val="774947791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -304,7 +364,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>time (s)</a:t>
+                  <a:t>Time(s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -327,7 +387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1343669871"/>
+        <c:crossAx val="1418714249"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -355,7 +415,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Timing (Nodes=4 Cores=4)</a:t>
+              <a:t>Scale 13 Cores 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -372,7 +432,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$45</c:f>
+              <c:f>Sheet1!$D$18</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -396,12 +456,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$46:$C$52</c:f>
+              <c:f>Sheet1!$C$19:$C$21</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$46:$D$52</c:f>
+              <c:f>Sheet1!$D$19:$D$21</c:f>
             </c:numRef>
           </c:yVal>
         </c:ser>
@@ -413,11 +473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1949051714"/>
-        <c:axId val="382638821"/>
+        <c:axId val="1717909627"/>
+        <c:axId val="462897451"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1949051714"/>
+        <c:axId val="1717909627"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +502,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>scale(2^x)</a:t>
+                  <a:t>Nodes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -465,10 +525,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382638821"/>
+        <c:crossAx val="462897451"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382638821"/>
+        <c:axId val="462897451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,7 +553,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>time (s)</a:t>
+                  <a:t>TEPS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -516,7 +576,385 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1949051714"/>
+        <c:crossAx val="1717909627"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Nodes 4 Scale 13</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$18</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4684EE"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4684EE"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$21</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$21</c:f>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="155731295"/>
+        <c:axId val="1641103356"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="155731295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641103356"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1641103356"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>TIme</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155731295"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Nodes 4 Scale 13</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$18</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4684EE"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4684EE"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$H$21</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$19:$I$21</c:f>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1398907093"/>
+        <c:axId val="69190924"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1398907093"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69190924"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69190924"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>TEPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt sourceLinked="1" formatCode="General"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="47625">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1398907093"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -530,8 +968,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:absoluteAnchor>
-    <xdr:pos y="3933825" x="4467225"/>
-    <xdr:ext cy="3533775" cx="5715000"/>
+    <xdr:pos y="4543425" x="57150"/>
+    <xdr:ext cy="2381250" cx="1933575"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1"/>
@@ -550,8 +988,8 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos y="8553450" x="6010275"/>
-    <xdr:ext cy="3533775" cx="5715000"/>
+    <xdr:pos y="4867275" x="2085975"/>
+    <xdr:ext cy="1943100" cx="2085975"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
@@ -569,6 +1007,46 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos y="4638675" x="5238750"/>
+    <xdr:ext cy="2466975" cx="1971675"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off y="0" x="0"/>
+        <a:ext cy="0" cx="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos y="4972050" x="7362825"/>
+    <xdr:ext cy="2181225" cx="2400300"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off y="0" x="0"/>
+        <a:ext cy="0" cx="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -580,585 +1058,846 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" customWidth="1" max="3" width="16.86"/>
+    <col min="5" customWidth="1" max="5" width="16.86"/>
+    <col min="7" customWidth="1" max="7" width="16.71"/>
   </cols>
   <sheetData>
     <row r="5">
-      <c t="s" s="1" r="C5">
+      <c t="s" s="1" r="A5">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="E5">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="F5">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="I5">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
+      <c t="s" s="1" r="A7">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="B7">
+        <v>5</v>
+      </c>
       <c t="s" s="1" r="C7">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="F7">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="G7">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="I7">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="J7">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="K7">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c s="1" r="C8">
+      <c s="1" r="A8">
         <v>10.0</v>
       </c>
-      <c s="1" r="D8">
+      <c s="1" r="B8">
         <v>0.0195223</v>
       </c>
-      <c s="2" r="E8">
+      <c s="2" r="C8">
         <v>196663.391424174</v>
       </c>
+      <c s="1" r="E8">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="F8">
+        <v>0.1974725</v>
+      </c>
+      <c s="2" r="G8">
+        <v>12716.2141114089</v>
+      </c>
+      <c s="1" r="I8">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="J8">
+        <v>0.5359992</v>
+      </c>
+      <c s="2" r="K8">
+        <v>5422.24647210758</v>
+      </c>
     </row>
     <row r="9">
-      <c s="1" r="C9">
+      <c s="1" r="A9">
         <v>11.0</v>
       </c>
-      <c s="1" r="D9">
+      <c s="1" r="B9">
         <v>0.045345</v>
       </c>
-      <c s="2" r="E9">
+      <c s="2" r="C9">
         <v>168762.741113132</v>
       </c>
+      <c s="1" r="E9">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="F9">
+        <v>0.3156498</v>
+      </c>
+      <c s="2" r="G9">
+        <v>19480.7612923745</v>
+      </c>
+      <c s="1" r="I9">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="J9">
+        <v>0.7315231</v>
+      </c>
+      <c s="2" r="K9">
+        <v>8989.4617562339</v>
+      </c>
     </row>
     <row r="10">
-      <c s="1" r="C10">
+      <c s="1" r="A10">
         <v>12.0</v>
       </c>
-      <c s="1" r="D10">
+      <c s="1" r="B10">
         <v>0.1185085</v>
       </c>
-      <c s="2" r="E10">
+      <c s="2" r="C10">
         <v>138504.290195411</v>
       </c>
+      <c s="1" r="E10">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="F10">
+        <v>0.4122598</v>
+      </c>
+      <c s="2" r="G10">
+        <v>29187.5731018547</v>
+      </c>
+      <c s="1" r="I10">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="J10">
+        <v>0.9159996</v>
+      </c>
+      <c s="2" r="K10">
+        <v>13759.0071727232</v>
+      </c>
     </row>
     <row r="11">
-      <c s="1" r="C11">
+      <c s="1" r="A11">
         <v>13.0</v>
       </c>
-      <c s="1" r="D11">
+      <c s="1" r="B11">
         <v>0.2590758</v>
       </c>
-      <c s="2" r="E11">
+      <c s="2" r="C11">
         <v>123149.568306039</v>
       </c>
+      <c s="1" r="E11">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="F11">
+        <v>0.7239546</v>
+      </c>
+      <c s="2" r="G11">
+        <v>37054.1807086566</v>
+      </c>
+      <c s="1" r="I11">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="J11">
+        <v>1.4399727</v>
+      </c>
+      <c s="2" r="K11">
+        <v>18807.7478029248</v>
+      </c>
     </row>
     <row r="12">
-      <c s="1" r="C12">
+      <c s="1" r="A12">
         <v>14.0</v>
       </c>
-      <c s="1" r="D12">
+      <c s="1" r="B12">
         <v>0.6759084</v>
       </c>
-      <c s="2" r="E12">
+      <c s="2" r="C12">
         <v>102268.696128044</v>
       </c>
+      <c s="1" r="E12">
+        <v>14.0</v>
+      </c>
+      <c s="1" r="F12">
+        <v>1.3600523</v>
+      </c>
+      <c s="2" r="G12">
+        <v>41395.1712257824</v>
+      </c>
+      <c s="1" r="I12">
+        <v>14.0</v>
+      </c>
+      <c s="1" r="J12">
+        <v>2.7086218</v>
+      </c>
+      <c s="2" r="K12">
+        <v>20525.2573975928</v>
+      </c>
     </row>
     <row r="13">
-      <c s="1" r="C13">
+      <c s="1" r="A13">
         <v>15.0</v>
       </c>
-      <c s="1" r="D13">
+      <c s="1" r="B13">
         <v>1.4849656</v>
       </c>
-      <c s="2" r="E13">
+      <c s="2" r="C13">
         <v>86294.9722695372</v>
       </c>
+      <c s="1" r="E13">
+        <v>15.0</v>
+      </c>
+      <c s="1" r="F13">
+        <v>2.8392271</v>
+      </c>
+      <c s="2" r="G13">
+        <v>41411.4027051367</v>
+      </c>
+      <c s="1" r="I13">
+        <v>15.0</v>
+      </c>
+      <c s="1" r="J13">
+        <v>5.7760004</v>
+      </c>
+      <c s="2" r="K13">
+        <v>20011.0149927293</v>
+      </c>
     </row>
     <row r="14">
-      <c s="1" r="C14">
+      <c s="1" r="A14">
         <v>16.0</v>
       </c>
-      <c s="1" r="D14">
+      <c s="1" r="B14">
         <v>3.568799</v>
       </c>
-      <c s="2" r="E14">
+      <c s="2" r="C14">
         <v>71560.5351037209</v>
       </c>
+      <c s="1" r="E14">
+        <v>16.0</v>
+      </c>
+      <c s="1" r="F14">
+        <v>5.9881208</v>
+      </c>
+      <c s="2" r="G14">
+        <v>37907.4982712227</v>
+      </c>
+      <c s="1" r="I14">
+        <v>16.0</v>
+      </c>
+      <c s="1" r="J14">
+        <v>12.1160785</v>
+      </c>
+      <c s="2" r="K14">
+        <v>18566.9494157518</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" s="1" r="A17">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="F17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" s="1" r="A18">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="B18">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="C18">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="D18">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="F18">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="G18">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="H18">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="I18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19">
+      <c s="1" r="A19">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="B19">
+        <v>0.8550665</v>
+      </c>
+      <c s="1" r="C19">
+        <v>3.0</v>
+      </c>
+      <c s="2" r="D19">
+        <v>38056.3543602685</v>
+      </c>
+      <c s="1" r="F19">
+        <v>2.0</v>
+      </c>
+      <c s="1" r="G19">
+        <v>0.2590758</v>
+      </c>
+      <c s="1" r="H19">
+        <v>2.0</v>
+      </c>
+      <c s="2" r="I19">
+        <v>123149.568306039</v>
+      </c>
+    </row>
+    <row r="20">
+      <c s="1" r="A20">
+        <v>4.0</v>
+      </c>
+      <c s="1" r="B20">
+        <v>0.2590758</v>
+      </c>
+      <c s="1" r="C20">
+        <v>4.0</v>
+      </c>
+      <c s="2" r="D20">
+        <v>123149.568306039</v>
+      </c>
+      <c s="1" r="F20">
+        <v>4.0</v>
+      </c>
+      <c s="1" r="G20">
+        <v>0.7239546</v>
+      </c>
+      <c s="1" r="H20">
+        <v>4.0</v>
+      </c>
+      <c s="2" r="I20">
+        <v>37054.1807086566</v>
+      </c>
     </row>
     <row r="21">
-      <c t="s" s="1" r="C21">
-        <v>4</v>
-      </c>
-      <c t="s" s="1" r="D21">
-        <v>5</v>
+      <c s="1" r="A21">
+        <v>8.0</v>
+      </c>
+      <c s="1" r="B21">
+        <v>0.0802769</v>
+      </c>
+      <c s="1" r="C21">
+        <v>8.0</v>
+      </c>
+      <c s="2" r="D21">
+        <v>357163.734722197</v>
+      </c>
+      <c s="1" r="F21">
+        <v>8.0</v>
+      </c>
+      <c s="1" r="G21">
+        <v>1.4399727</v>
+      </c>
+      <c s="1" r="H21">
+        <v>8.0</v>
+      </c>
+      <c s="2" r="I21">
+        <v>18807.7478029248</v>
       </c>
     </row>
     <row r="22">
-      <c s="1" r="C22">
+      <c s="1" r="A22"/>
+      <c s="1" r="B22"/>
+    </row>
+    <row r="23">
+      <c s="1" r="A23"/>
+      <c s="1" r="B23"/>
+    </row>
+    <row r="24">
+      <c s="1" r="A24"/>
+    </row>
+    <row r="25">
+      <c s="1" r="A25"/>
+    </row>
+    <row r="41">
+      <c t="s" s="1" r="A41">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="E41">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="I41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c t="s" s="1" r="A43">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="B43">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="C43">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="E43">
+        <v>29</v>
+      </c>
+      <c t="s" s="1" r="F43">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="G43">
+        <v>31</v>
+      </c>
+      <c t="s" s="1" r="I43">
+        <v>32</v>
+      </c>
+      <c t="s" s="1" r="J43">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="K43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c s="1" r="A44">
         <v>10.0</v>
       </c>
-      <c s="1" r="D22">
-        <v>0.0195223</v>
-      </c>
-    </row>
-    <row r="23">
-      <c s="1" r="C23">
+      <c s="1" r="B44">
+        <v>0.0344298</v>
+      </c>
+      <c s="2" r="C44">
+        <v>101858.335299941</v>
+      </c>
+      <c s="1" r="E44">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="F44">
+        <v>0.1738422</v>
+      </c>
+      <c s="2" r="G44">
+        <v>12408.8973065236</v>
+      </c>
+      <c s="1" r="I44">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="J44">
+        <v>0.6439654</v>
+      </c>
+      <c s="2" r="K44">
+        <v>10239.9354116073</v>
+      </c>
+    </row>
+    <row r="45">
+      <c s="1" r="A45">
         <v>11.0</v>
       </c>
-      <c s="1" r="D23">
-        <v>0.045345</v>
-      </c>
-    </row>
-    <row r="24">
-      <c s="1" r="C24">
+      <c s="1" r="B45">
+        <v>0.0887094</v>
+      </c>
+      <c s="2" r="C45">
+        <v>70881.1862760614</v>
+      </c>
+      <c s="1" r="E45">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="F45">
+        <v>0.3458598</v>
+      </c>
+      <c s="2" r="G45">
+        <v>17042.3598071348</v>
+      </c>
+      <c s="1" r="I45">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="J45">
+        <v>0.7887884</v>
+      </c>
+      <c s="2" r="K45">
+        <v>7549.52172409499</v>
+      </c>
+    </row>
+    <row r="46">
+      <c s="1" r="A46">
         <v>12.0</v>
       </c>
-      <c s="1" r="D24">
-        <v>0.1185085</v>
-      </c>
-    </row>
-    <row r="25">
-      <c s="1" r="C25">
+      <c s="1" r="B46">
+        <v>0.3455837</v>
+      </c>
+      <c s="2" r="C46">
+        <v>38056.3543602685</v>
+      </c>
+      <c s="1" r="E46">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="F46">
+        <v>0.822186</v>
+      </c>
+      <c s="2" r="G46">
+        <v>17544.6149733831</v>
+      </c>
+      <c s="1" r="I46">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="J46">
+        <v>1.5918546</v>
+      </c>
+      <c s="2" r="K46">
+        <v>8774.10435732216</v>
+      </c>
+    </row>
+    <row r="47">
+      <c s="1" r="A47">
         <v>13.0</v>
       </c>
-      <c s="1" r="D25">
-        <v>0.2590758</v>
-      </c>
-    </row>
-    <row r="26">
-      <c s="1" r="C26">
+      <c s="1" r="B47">
+        <v>0.8550665</v>
+      </c>
+      <c s="2" r="C47">
+        <v>28896.7091363251</v>
+      </c>
+      <c s="1" r="E47">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="F47">
+        <v>1.4080322</v>
+      </c>
+      <c s="2" r="G47">
+        <v>18968.4491515277</v>
+      </c>
+      <c s="1" r="I47">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="J47">
+        <v>2.404021</v>
+      </c>
+      <c s="2" r="K47">
+        <v>10470.1600920178</v>
+      </c>
+    </row>
+    <row r="48">
+      <c s="1" r="A48">
         <v>14.0</v>
       </c>
-      <c s="1" r="D26">
-        <v>0.6759084</v>
-      </c>
-    </row>
-    <row r="27">
-      <c s="1" r="C27">
+      <c s="1" r="B48"/>
+      <c s="1" r="E48">
+        <v>14.0</v>
+      </c>
+      <c s="1" r="F48">
+        <v>4.8658989</v>
+      </c>
+      <c s="2" r="G48">
+        <v>11003.4854440859</v>
+      </c>
+      <c s="1" r="I48">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c s="1" r="A49">
         <v>15.0</v>
       </c>
-      <c s="1" r="D27">
-        <v>1.4849656</v>
-      </c>
-    </row>
-    <row r="28">
-      <c s="1" r="C28">
+      <c s="1" r="E49">
+        <v>15.0</v>
+      </c>
+      <c s="1" r="I49">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c s="1" r="A50">
         <v>16.0</v>
       </c>
-      <c s="1" r="D28">
-        <v>3.568799</v>
-      </c>
-    </row>
-    <row r="43">
-      <c t="s" s="1" r="C43">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="D43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c t="s" s="1" r="C45">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="D45">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="E45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c s="1" r="C46">
+      <c s="1" r="E50">
+        <v>16.0</v>
+      </c>
+      <c s="1" r="I50">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c t="s" s="1" r="A70">
+        <v>35</v>
+      </c>
+      <c t="s" s="1" r="E70">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="I70">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72">
+      <c t="s" s="1" r="A72">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="B72">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="C72">
+        <v>40</v>
+      </c>
+      <c t="s" s="1" r="E72">
+        <v>41</v>
+      </c>
+      <c t="s" s="1" r="F72">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="G72">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="I72">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="J72">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="K72">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73">
+      <c s="1" r="A73">
         <v>10.0</v>
       </c>
-      <c s="1" r="D46">
-        <v>0.1974725</v>
-      </c>
-      <c s="2" r="E46">
-        <v>12716.2141114089</v>
-      </c>
-    </row>
-    <row r="47">
-      <c s="1" r="C47">
+      <c s="1" r="B73">
+        <v>0.0074212</v>
+      </c>
+      <c s="2" r="C73">
+        <v>475260.647541541</v>
+      </c>
+      <c s="1" r="E73">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="F73">
+        <v>0.2421203</v>
+      </c>
+      <c s="2" r="G73">
+        <v>11652.1243868692</v>
+      </c>
+      <c s="1" r="I73">
+        <v>10.0</v>
+      </c>
+      <c s="1" r="J73">
+        <v>0.5479546</v>
+      </c>
+      <c s="2" r="K73">
+        <v>5526.19854390097</v>
+      </c>
+    </row>
+    <row r="74">
+      <c s="1" r="A74">
         <v>11.0</v>
       </c>
-      <c s="1" r="D47">
-        <v>0.3156498</v>
-      </c>
-      <c s="2" r="E47">
-        <v>19480.7612923745</v>
-      </c>
-    </row>
-    <row r="48">
-      <c s="1" r="C48">
+      <c s="1" r="B74">
+        <v>0.0154892</v>
+      </c>
+      <c s="2" r="C74">
+        <v>443989.557487011</v>
+      </c>
+      <c s="1" r="E74">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="F74">
+        <v>0.2998089</v>
+      </c>
+      <c s="2" r="G74">
+        <v>20133.2253922829</v>
+      </c>
+      <c s="1" r="I74">
+        <v>11.0</v>
+      </c>
+      <c s="1" r="J74">
+        <v>0.6949448</v>
+      </c>
+      <c s="2" r="K74">
+        <v>9353.78826266598</v>
+      </c>
+    </row>
+    <row r="75">
+      <c s="1" r="A75">
         <v>12.0</v>
       </c>
-      <c s="1" r="D48">
-        <v>0.4122598</v>
-      </c>
-      <c s="2" r="E48">
-        <v>29187.5731018547</v>
-      </c>
-    </row>
-    <row r="49">
-      <c s="1" r="C49">
+      <c s="1" r="B75">
+        <v>0.0330982</v>
+      </c>
+      <c s="2" r="C75">
+        <v>399802.965073488</v>
+      </c>
+      <c s="1" r="E75">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="F75">
+        <v>0.3428739</v>
+      </c>
+      <c s="2" r="G75">
+        <v>34136.93461494</v>
+      </c>
+      <c s="1" r="I75">
+        <v>12.0</v>
+      </c>
+      <c s="1" r="J75">
+        <v>0.8316735</v>
+      </c>
+      <c s="2" r="K75">
+        <v>15698.4003147435</v>
+      </c>
+    </row>
+    <row r="76">
+      <c s="1" r="A76">
         <v>13.0</v>
       </c>
-      <c s="1" r="D49">
-        <v>0.7239546</v>
-      </c>
-      <c s="2" r="E49">
-        <v>37054.1807086566</v>
-      </c>
-    </row>
-    <row r="50">
-      <c s="1" r="C50">
+      <c s="1" r="B76">
+        <v>0.0802769</v>
+      </c>
+      <c s="2" r="C76">
+        <v>357163.734722197</v>
+      </c>
+      <c s="1" r="E76">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="F76">
+        <v>0.4855159</v>
+      </c>
+      <c s="2" r="G76">
+        <v>54378.1841853688</v>
+      </c>
+      <c s="1" r="I76">
+        <v>13.0</v>
+      </c>
+      <c s="1" r="J76">
+        <v>1.0429061</v>
+      </c>
+      <c s="2" r="K76">
+        <v>25795.0641050024</v>
+      </c>
+    </row>
+    <row r="77">
+      <c s="1" r="A77">
         <v>14.0</v>
       </c>
-      <c s="1" r="D50">
-        <v>1.3600523</v>
-      </c>
-      <c s="2" r="E50">
-        <v>41395.1712257824</v>
-      </c>
-    </row>
-    <row r="51">
-      <c s="1" r="C51">
+      <c s="1" r="B77">
+        <v>0.1892557</v>
+      </c>
+      <c s="2" r="C77">
+        <v>310637.839031165</v>
+      </c>
+      <c s="1" r="E77">
+        <v>14.0</v>
+      </c>
+      <c s="1" r="F77">
+        <v>0.7056601</v>
+      </c>
+      <c s="2" r="G77">
+        <v>75378.6940798743</v>
+      </c>
+      <c s="1" r="I77">
+        <v>14.0</v>
+      </c>
+      <c s="1" r="J77">
+        <v>1.5641173</v>
+      </c>
+      <c s="2" r="K77">
+        <v>35033.2848976997</v>
+      </c>
+    </row>
+    <row r="78">
+      <c s="1" r="A78">
         <v>15.0</v>
       </c>
-      <c s="1" r="D51">
-        <v>2.8392271</v>
-      </c>
-      <c s="2" r="E51">
-        <v>41411.4027051367</v>
-      </c>
-    </row>
-    <row r="52">
-      <c s="1" r="C52">
+      <c s="1" r="B78">
+        <v>0.4074385</v>
+      </c>
+      <c s="2" r="C78">
+        <v>279428.460843091</v>
+      </c>
+      <c s="1" r="E78">
+        <v>15.0</v>
+      </c>
+      <c s="1" r="F78">
+        <v>1.2079762</v>
+      </c>
+      <c s="2" r="G78">
+        <v>88296.7126561665</v>
+      </c>
+      <c s="1" r="I78">
+        <v>15.0</v>
+      </c>
+      <c s="1" r="J78">
+        <v>2.4720163</v>
+      </c>
+      <c s="2" r="K78">
+        <v>40775.5004072213</v>
+      </c>
+    </row>
+    <row r="79">
+      <c s="1" r="A79">
         <v>16.0</v>
       </c>
-      <c s="1" r="D52">
-        <v>5.9881208</v>
-      </c>
-      <c s="2" r="E52">
-        <v>37907.4982712227</v>
-      </c>
-    </row>
-    <row r="57">
-      <c t="s" s="1" r="C57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59">
-      <c t="s" s="1" r="C59">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="D59">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="E59">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60">
-      <c s="1" r="C60">
-        <v>10.0</v>
-      </c>
-      <c s="1" r="D60">
-        <v>0.5359992</v>
-      </c>
-      <c s="2" r="E60">
-        <v>5422.24647210758</v>
-      </c>
-    </row>
-    <row r="61">
-      <c s="1" r="C61">
-        <v>11.0</v>
-      </c>
-      <c s="1" r="D61">
-        <v>0.7315231</v>
-      </c>
-      <c s="2" r="E61">
-        <v>8989.4617562339</v>
-      </c>
-    </row>
-    <row r="62">
-      <c s="1" r="C62">
-        <v>12.0</v>
-      </c>
-      <c s="1" r="D62">
-        <v>0.9159996</v>
-      </c>
-      <c s="2" r="E62">
-        <v>13759.0071727232</v>
-      </c>
-    </row>
-    <row r="63">
-      <c s="1" r="C63">
-        <v>13.0</v>
-      </c>
-      <c s="1" r="D63">
-        <v>1.4399727</v>
-      </c>
-      <c s="2" r="E63">
-        <v>18807.7478029248</v>
-      </c>
-    </row>
-    <row r="64">
-      <c s="1" r="C64">
-        <v>14.0</v>
-      </c>
-      <c s="1" r="D64">
-        <v>2.7086218</v>
-      </c>
-      <c s="2" r="E64">
-        <v>20525.2573975928</v>
-      </c>
-    </row>
-    <row r="65">
-      <c s="1" r="C65">
-        <v>15.0</v>
-      </c>
-      <c s="1" r="D65">
-        <v>5.7760004</v>
-      </c>
-      <c s="2" r="E65">
-        <v>20011.0149927293</v>
-      </c>
-    </row>
-    <row r="66">
-      <c s="1" r="C66">
+      <c s="1" r="B79">
+        <v>0.9025067</v>
+      </c>
+      <c s="2" r="C79">
+        <v>254887.652140249</v>
+      </c>
+      <c s="1" r="E79">
         <v>16.0</v>
       </c>
-      <c s="1" r="D66">
-        <v>12.1160785</v>
-      </c>
-      <c s="2" r="E66">
-        <v>18566.9494157518</v>
-      </c>
-    </row>
-    <row r="71">
-      <c t="s" s="1" r="C71">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73">
-      <c t="s" s="1" r="C73">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="D73">
-        <v>17</v>
-      </c>
-      <c t="s" s="1" r="E73">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74">
-      <c s="1" r="C74">
-        <v>10.0</v>
-      </c>
-      <c s="1" r="D74">
-        <v>0.0344298</v>
-      </c>
-      <c s="2" r="E74">
-        <v>101858.335299941</v>
-      </c>
-    </row>
-    <row r="75">
-      <c s="1" r="C75">
-        <v>11.0</v>
-      </c>
-      <c s="1" r="D75">
-        <v>0.0887094</v>
-      </c>
-      <c s="2" r="E75">
-        <v>70881.1862760614</v>
-      </c>
-    </row>
-    <row r="76">
-      <c s="1" r="C76">
-        <v>12.0</v>
-      </c>
-      <c s="1" r="D76">
-        <v>0.3455837</v>
-      </c>
-      <c s="2" r="E76">
-        <v>38056.3543602685</v>
-      </c>
-    </row>
-    <row r="77">
-      <c s="1" r="C77">
-        <v>13.0</v>
-      </c>
-      <c s="1" r="D77">
-        <v>0.8550665</v>
-      </c>
-      <c s="2" r="E77">
-        <v>28896.7091363251</v>
-      </c>
-    </row>
-    <row r="78">
-      <c s="1" r="C78">
-        <v>14.0</v>
-      </c>
-      <c s="1" r="D78"/>
-    </row>
-    <row r="79">
-      <c s="1" r="C79">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c s="1" r="C80">
+      <c s="1" r="F79">
+        <v>2.195994</v>
+      </c>
+      <c s="2" r="G79">
+        <v>94198.0377085525</v>
+      </c>
+      <c s="1" r="I79">
         <v>16.0</v>
       </c>
     </row>
-    <row r="85">
-      <c t="s" s="1" r="C85">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="86">
-      <c t="s" s="1" r="C86">
-        <v>20</v>
-      </c>
-      <c t="s" s="1" r="D86">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="E86">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87">
-      <c s="1" r="C87">
-        <v>10.0</v>
-      </c>
-      <c s="1" r="D87">
-        <v>0.1738422</v>
-      </c>
-      <c s="2" r="E87">
-        <v>12408.8973065236</v>
-      </c>
-    </row>
-    <row r="88">
-      <c s="1" r="C88">
-        <v>11.0</v>
-      </c>
-      <c s="1" r="D88">
-        <v>0.3458598</v>
-      </c>
-      <c s="2" r="E88">
-        <v>17042.3598071348</v>
-      </c>
-    </row>
-    <row r="89">
-      <c s="1" r="C89">
-        <v>12.0</v>
-      </c>
-      <c s="1" r="D89">
-        <v>0.822186</v>
-      </c>
-      <c s="2" r="E89">
-        <v>17544.6149733831</v>
-      </c>
-    </row>
-    <row r="90">
-      <c s="1" r="C90">
-        <v>13.0</v>
-      </c>
-      <c s="1" r="D90">
-        <v>1.4080322</v>
-      </c>
-      <c s="2" r="E90">
-        <v>18968.4491515277</v>
-      </c>
-    </row>
-    <row r="91">
-      <c s="1" r="C91">
-        <v>14.0</v>
-      </c>
-      <c s="1" r="D91">
-        <v>4.8658989</v>
-      </c>
-      <c s="2" r="E91">
-        <v>11003.4854440859</v>
-      </c>
-    </row>
-    <row r="92">
-      <c s="1" r="C92">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c s="1" r="C93">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c t="s" s="1" r="C96">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97">
-      <c t="s" s="1" r="C97">
-        <v>24</v>
-      </c>
-      <c t="s" s="1" r="D97">
-        <v>25</v>
-      </c>
-      <c t="s" s="1" r="E97">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98">
-      <c s="1" r="C98">
-        <v>10.0</v>
-      </c>
-      <c s="1" r="D98">
-        <v>0.6439654</v>
-      </c>
-      <c s="2" r="E98">
-        <v>10239.9354116073</v>
-      </c>
-    </row>
-    <row r="99">
-      <c s="1" r="C99">
-        <v>11.0</v>
-      </c>
-      <c s="1" r="D99">
-        <v>0.7887884</v>
-      </c>
-      <c s="2" r="E99">
-        <v>7549.52172409499</v>
-      </c>
-    </row>
     <row r="100">
-      <c s="1" r="C100">
-        <v>12.0</v>
-      </c>
-      <c s="1" r="D100">
-        <v>1.5918546</v>
-      </c>
-      <c s="2" r="E100">
-        <v>8774.10435732216</v>
-      </c>
+      <c s="1" r="A100"/>
+      <c s="1" r="B100"/>
     </row>
     <row r="101">
-      <c s="1" r="C101">
-        <v>13.0</v>
-      </c>
-      <c s="1" r="D101">
-        <v>2.404021</v>
-      </c>
-      <c s="2" r="E101">
-        <v>10470.1600920178</v>
-      </c>
+      <c s="1" r="A101"/>
+      <c s="1" r="B101"/>
     </row>
     <row r="102">
-      <c s="1" r="C102">
-        <v>14.0</v>
-      </c>
+      <c s="1" r="A102"/>
+      <c s="1" r="B102"/>
     </row>
     <row r="103">
-      <c s="1" r="C103">
-        <v>15.0</v>
-      </c>
+      <c s="1" r="A103"/>
+      <c s="1" r="B103"/>
     </row>
     <row r="104">
-      <c s="1" r="C104">
-        <v>16.0</v>
-      </c>
+      <c s="1" r="A104"/>
+      <c s="1" r="B104"/>
+    </row>
+    <row r="105">
+      <c s="1" r="A105"/>
+      <c s="1" r="B105"/>
+    </row>
+    <row r="106">
+      <c s="1" r="A106"/>
+      <c s="1" r="B106"/>
+    </row>
+    <row r="107">
+      <c s="1" r="A107"/>
+      <c s="1" r="B107"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
